--- a/WebContent/要件/クラス図.xlsx
+++ b/WebContent/要件/クラス図.xlsx
@@ -2791,7 +2791,7 @@
   </sheetPr>
   <dimension ref="A2:X95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P90" activeCellId="0" sqref="P90"/>
     </sheetView>
   </sheetViews>
@@ -3377,7 +3377,7 @@
         <v>70</v>
       </c>
       <c r="K44" s="11"/>
-      <c r="S44" s="0" t="s">
+      <c r="S44" s="16" t="s">
         <v>71</v>
       </c>
       <c r="T44" s="3"/>
@@ -3722,7 +3722,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="42" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
